--- a/models/ctmc/epidemic/properties25.xlsx
+++ b/models/ctmc/epidemic/properties25.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC64E8CA-7BB8-4E47-AE57-CB8028026F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -118,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,21 +440,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -457,7 +468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>"Rel T="&amp;C2</f>
         <v>Rel T=104</v>
@@ -476,9 +487,9 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">"Rel T="&amp;C3</f>
+        <f t="shared" ref="A3:A26" si="0">"Rel T="&amp;C3</f>
         <v>Rel T=108</v>
       </c>
       <c r="B3" t="s">
@@ -495,7 +506,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=112</v>
@@ -514,7 +525,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=116</v>
@@ -533,7 +544,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=120</v>
@@ -552,7 +563,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=124</v>
@@ -571,7 +582,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=128</v>
@@ -590,7 +601,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=132</v>
@@ -609,7 +620,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=136</v>
@@ -628,7 +639,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=140</v>
@@ -647,7 +658,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=144</v>
@@ -666,7 +677,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=148</v>
@@ -685,7 +696,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=152</v>
@@ -704,7 +715,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=156</v>
@@ -723,7 +734,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=160</v>
@@ -742,7 +753,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=164</v>
@@ -761,7 +772,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=168</v>
@@ -780,7 +791,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=172</v>
@@ -799,7 +810,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=176</v>
@@ -818,7 +829,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=180</v>
@@ -837,7 +848,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=184</v>
@@ -856,7 +867,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=188</v>
@@ -875,7 +886,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=192</v>
@@ -894,7 +905,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=196</v>
@@ -913,7 +924,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Rel T=200</v>
@@ -932,2251 +943,2251 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" t="str">
         <f t="shared" ref="J67:J130" si="2">F67&amp;G67&amp;H67</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" t="str">
         <f t="shared" ref="J131:J194" si="3">F131&amp;G131&amp;H131</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J180" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J181" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J182" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J183" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J184" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J185" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J186" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J187" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J188" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J189" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J190" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J191" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J192" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J193" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J194" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J195" t="str">
         <f t="shared" ref="J195:J258" si="4">F195&amp;G195&amp;H195</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J196" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J197" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J198" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J199" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J200" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J201" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J202" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J203" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J204" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J205" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J206" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J207" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J208" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J209" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J210" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J211" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J212" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J213" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J214" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J215" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J216" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J217" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J218" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J219" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J220" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J221" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J222" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J223" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J224" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J226" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J228" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J229" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J231" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J232" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J233" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J234" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J235" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J236" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J237" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J238" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J239" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J240" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J241" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J242" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J243" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J244" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J245" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J246" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J247" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J248" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J249" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J250" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J251" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J252" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J253" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J254" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J255" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J256" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J257" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J258" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J259" t="str">
         <f t="shared" ref="J259:J322" si="5">F259&amp;G259&amp;H259</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J260" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J261" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J262" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J263" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J264" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J265" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J266" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J267" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J268" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J269" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J270" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J271" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J272" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J273" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J274" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J275" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J276" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J277" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J278" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J279" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J280" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J281" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J282" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J283" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J284" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J285" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J286" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J287" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J288" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J289" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J290" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J291" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J292" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J293" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J294" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J295" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J296" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J297" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J298" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J299" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J300" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J301" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J303" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J304" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J305" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J306" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J307" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J308" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J309" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J310" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J311" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J312" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J313" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J314" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J315" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J316" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J318" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J319" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J320" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J321" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J322" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J323" t="str">
         <f t="shared" ref="J323:J386" si="6">F323&amp;G323&amp;H323</f>
         <v/>
       </c>
     </row>
-    <row r="324" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J324" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J325" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J326" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J327" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J328" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J329" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J330" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J331" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J332" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J333" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J334" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J335" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J336" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J337" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J338" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J339" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J340" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J341" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J342" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J343" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J344" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J345" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J346" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J347" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J348" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J349" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J350" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J351" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J352" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J353" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J354" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J355" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J356" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J357" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J358" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J359" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J360" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J361" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J362" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J363" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J364" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J365" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J366" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J367" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J368" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J369" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J370" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J371" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J372" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J373" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J374" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J375" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J376" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J377" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J378" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J379" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J380" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J381" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J382" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J383" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J384" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J385" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J386" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J387" t="str">
         <f t="shared" ref="J387:J401" si="7">F387&amp;G387&amp;H387</f>
         <v/>
       </c>
     </row>
-    <row r="388" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J388" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J389" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J390" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J391" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J392" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J393" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J394" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J395" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J396" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J397" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J398" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J399" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J400" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J401" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3188,16 +3199,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E25" sqref="E1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -3212,7 +3223,7 @@
         <v>P=? [ (popI&gt;0) U[100,104] (popI=0) ]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3223,11 +3234,11 @@
         <v>30</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E65" si="0">A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="E2:E25" si="0">A2&amp;B2&amp;C2</f>
         <v>P=? [ (popI&gt;0) U[100,108] (popI=0) ]</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3242,7 +3253,7 @@
         <v>P=? [ (popI&gt;0) U[100,112] (popI=0) ]</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3257,7 +3268,7 @@
         <v>P=? [ (popI&gt;0) U[100,116] (popI=0) ]</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3272,7 +3283,7 @@
         <v>P=? [ (popI&gt;0) U[100,120] (popI=0) ]</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3287,7 +3298,7 @@
         <v>P=? [ (popI&gt;0) U[100,124] (popI=0) ]</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3302,7 +3313,7 @@
         <v>P=? [ (popI&gt;0) U[100,128] (popI=0) ]</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3317,7 +3328,7 @@
         <v>P=? [ (popI&gt;0) U[100,132] (popI=0) ]</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3332,7 +3343,7 @@
         <v>P=? [ (popI&gt;0) U[100,136] (popI=0) ]</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3347,7 +3358,7 @@
         <v>P=? [ (popI&gt;0) U[100,140] (popI=0) ]</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3362,7 +3373,7 @@
         <v>P=? [ (popI&gt;0) U[100,144] (popI=0) ]</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3377,7 +3388,7 @@
         <v>P=? [ (popI&gt;0) U[100,148] (popI=0) ]</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3392,7 +3403,7 @@
         <v>P=? [ (popI&gt;0) U[100,152] (popI=0) ]</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3407,7 +3418,7 @@
         <v>P=? [ (popI&gt;0) U[100,156] (popI=0) ]</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3422,7 +3433,7 @@
         <v>P=? [ (popI&gt;0) U[100,160] (popI=0) ]</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3437,7 +3448,7 @@
         <v>P=? [ (popI&gt;0) U[100,164] (popI=0) ]</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3452,7 +3463,7 @@
         <v>P=? [ (popI&gt;0) U[100,168] (popI=0) ]</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3467,7 +3478,7 @@
         <v>P=? [ (popI&gt;0) U[100,172] (popI=0) ]</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3482,7 +3493,7 @@
         <v>P=? [ (popI&gt;0) U[100,176] (popI=0) ]</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3497,7 +3508,7 @@
         <v>P=? [ (popI&gt;0) U[100,180] (popI=0) ]</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3512,7 +3523,7 @@
         <v>P=? [ (popI&gt;0) U[100,184] (popI=0) ]</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3527,7 +3538,7 @@
         <v>P=? [ (popI&gt;0) U[100,188] (popI=0) ]</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3542,7 +3553,7 @@
         <v>P=? [ (popI&gt;0) U[100,192] (popI=0) ]</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3557,7 +3568,7 @@
         <v>P=? [ (popI&gt;0) U[100,196] (popI=0) ]</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
